--- a/data/landings/cdfw/public/merged/data/CPFV_species_groups.xlsx
+++ b/data/landings/cdfw/public/merged/data/CPFV_species_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A4F6A8-F457-BC47-8CA1-5049390A0364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D2F72-0078-CC42-A483-0C29E33BFA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26420" yWindow="1620" windowWidth="19760" windowHeight="19040" xr2:uid="{A1FE4798-1A10-D44B-8BC4-D05CDA549676}"/>
+    <workbookView xWindow="4200" yWindow="3280" windowWidth="19760" windowHeight="19040" xr2:uid="{A1FE4798-1A10-D44B-8BC4-D05CDA549676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t xml:space="preserve">Albacore tuna                  </t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Kelp/sand bass</t>
+  </si>
+  <si>
+    <t>Coastal pelagic species</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BCBD31-7154-1549-9FFE-E89C03044BFA}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,58 +551,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -607,7 +610,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +618,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +626,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +634,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +642,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +650,7 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -655,7 +658,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,23 +666,23 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/landings/cdfw/public/merged/data/CPFV_species_groups.xlsx
+++ b/data/landings/cdfw/public/merged/data/CPFV_species_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D2F72-0078-CC42-A483-0C29E33BFA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B78B3-6D26-E347-A531-CE1A4FC2C700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3280" windowWidth="19760" windowHeight="19040" xr2:uid="{A1FE4798-1A10-D44B-8BC4-D05CDA549676}"/>
+    <workbookView xWindow="28700" yWindow="3260" windowWidth="19760" windowHeight="19040" xr2:uid="{A1FE4798-1A10-D44B-8BC4-D05CDA549676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
